--- a/data/trans_orig/P6606-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>87430</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73349</v>
+        <v>71837</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104800</v>
+        <v>103956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.35666286773322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2992211438113694</v>
+        <v>0.2930536423544083</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4275201753101066</v>
+        <v>0.4240770146186272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -765,19 +765,19 @@
         <v>164759</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150690</v>
+        <v>150651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177498</v>
+        <v>176823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7563113248413956</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6917288603057909</v>
+        <v>0.691549161008819</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8147902861716759</v>
+        <v>0.8116923022132029</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>237</v>
@@ -786,19 +786,19 @@
         <v>252188</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>227163</v>
+        <v>227018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>274963</v>
+        <v>272771</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5447088135882784</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4906554816153003</v>
+        <v>0.490343389897594</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5939006516787033</v>
+        <v>0.5891664143746027</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>57528</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44589</v>
+        <v>44067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73080</v>
+        <v>71702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2346805592843842</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1818957885728325</v>
+        <v>0.1797670445863858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2981225598302248</v>
+        <v>0.2925027757538858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -836,19 +836,19 @@
         <v>41347</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29969</v>
+        <v>30155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54792</v>
+        <v>54684</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1897991405775094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.137572042125399</v>
+        <v>0.1384252312711356</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2515193716890066</v>
+        <v>0.2510235380106056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -857,19 +857,19 @@
         <v>98875</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82464</v>
+        <v>80599</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>120270</v>
+        <v>118552</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.213562577513303</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1781156183823908</v>
+        <v>0.1740873316968356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2597755729629308</v>
+        <v>0.2560631840558216</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>69609</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54603</v>
+        <v>56347</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>84675</v>
+        <v>85529</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2839611139101229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2227489449799211</v>
+        <v>0.2298613377386108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3454220654623254</v>
+        <v>0.3489076226299868</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -907,19 +907,19 @@
         <v>9541</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4423</v>
+        <v>4987</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16976</v>
+        <v>17596</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04379784771301246</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02030386196631455</v>
+        <v>0.02289315977094233</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07792629066026353</v>
+        <v>0.08077312953490604</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>71</v>
@@ -928,19 +928,19 @@
         <v>79150</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>62761</v>
+        <v>63555</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>97431</v>
+        <v>97147</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1709574784689593</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1355596432642321</v>
+        <v>0.1372753288996666</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2104431029029658</v>
+        <v>0.2098302521706848</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>30567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21479</v>
+        <v>20771</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42782</v>
+        <v>41404</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1246954590722728</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08762031551831376</v>
+        <v>0.08473526466925417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1745238753372722</v>
+        <v>0.1689041394627582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6805</v>
+        <v>6862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01009168686808244</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03123709370621497</v>
+        <v>0.03149882217975653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -999,19 +999,19 @@
         <v>32765</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23205</v>
+        <v>22760</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>45533</v>
+        <v>45129</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07077113042945932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05012164405439049</v>
+        <v>0.04916066416850619</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09834751762578774</v>
+        <v>0.097475473709059</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>273115</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>248493</v>
+        <v>247555</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>295872</v>
+        <v>297810</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4253131908676637</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.386970521127468</v>
+        <v>0.3855103793407175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4607516116694242</v>
+        <v>0.4637702806732301</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>203</v>
@@ -1124,19 +1124,19 @@
         <v>214290</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>196918</v>
+        <v>198174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>227580</v>
+        <v>228869</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7451060672758794</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6847023248333211</v>
+        <v>0.6890717300745158</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7913167677674054</v>
+        <v>0.7957987089710246</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>461</v>
@@ -1145,19 +1145,19 @@
         <v>487404</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>455917</v>
+        <v>456669</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>517271</v>
+        <v>519082</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.524233795769166</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4903673774485448</v>
+        <v>0.4911764007105269</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5563577989237775</v>
+        <v>0.5583049195181252</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>175406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153733</v>
+        <v>152424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>198349</v>
+        <v>198129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2731545291935157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2394028611170466</v>
+        <v>0.237364403990157</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3088820359795689</v>
+        <v>0.3085396628471955</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1195,19 +1195,19 @@
         <v>52635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40886</v>
+        <v>40333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67404</v>
+        <v>66213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1830182215592137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.142165068956863</v>
+        <v>0.1402428868748062</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2343688416416571</v>
+        <v>0.2302278147188843</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -1216,19 +1216,19 @@
         <v>228042</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>203131</v>
+        <v>202049</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>255741</v>
+        <v>254696</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2452729260292497</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2184805478388498</v>
+        <v>0.217316731307839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2750655940400352</v>
+        <v>0.2739415606877367</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>150503</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130683</v>
+        <v>130144</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>175377</v>
+        <v>173940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2343742573335846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.203508823408168</v>
+        <v>0.202669222334251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2731084405937978</v>
+        <v>0.2708717126888642</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -1266,19 +1266,19 @@
         <v>13050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7229</v>
+        <v>7374</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>22039</v>
+        <v>21730</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04537443523180942</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02513639623804993</v>
+        <v>0.02564048738359373</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07663254643547641</v>
+        <v>0.07555704896594494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>159</v>
@@ -1287,19 +1287,19 @@
         <v>163553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>141753</v>
+        <v>141626</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189764</v>
+        <v>186625</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1759114893739929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1524639979637447</v>
+        <v>0.1523271681337052</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2041030729533606</v>
+        <v>0.2007272325722509</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>43126</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32031</v>
+        <v>32618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57808</v>
+        <v>58195</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06715802260523596</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04988067559274754</v>
+        <v>0.05079484622909565</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09002236667243138</v>
+        <v>0.09062573572957373</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -1337,19 +1337,19 @@
         <v>7622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3072</v>
+        <v>3096</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15367</v>
+        <v>14299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02650127593309757</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0106829743955521</v>
+        <v>0.01076396856106544</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05343177170024262</v>
+        <v>0.04971885546476136</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>49</v>
@@ -1358,19 +1358,19 @@
         <v>50747</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37710</v>
+        <v>37985</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66137</v>
+        <v>65997</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05458178882759154</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04055968636030349</v>
+        <v>0.04085569344933593</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07113494343359952</v>
+        <v>0.0709840422399402</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>368624</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>342838</v>
+        <v>343424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>395859</v>
+        <v>395529</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5222872457271751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4857526186055868</v>
+        <v>0.4865824440979125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5608758365889075</v>
+        <v>0.5604070686979674</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>284</v>
@@ -1483,19 +1483,19 @@
         <v>293926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>280635</v>
+        <v>278907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>308017</v>
+        <v>306544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8314504979815258</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7938543410283353</v>
+        <v>0.7889640405042186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8713096902744492</v>
+        <v>0.8671443059088592</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>642</v>
@@ -1504,19 +1504,19 @@
         <v>662550</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>630172</v>
+        <v>633855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>693994</v>
+        <v>695300</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6254614815558138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5948959397368108</v>
+        <v>0.5983729369983247</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6551453655114681</v>
+        <v>0.6563779126556</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>155419</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>134715</v>
+        <v>134194</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>177840</v>
+        <v>179025</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2202064031364579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1908715776018114</v>
+        <v>0.1901330636047469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2519735738735993</v>
+        <v>0.2536531258758442</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>42</v>
@@ -1554,19 +1554,19 @@
         <v>42607</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>31848</v>
+        <v>30154</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56018</v>
+        <v>55223</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1205248003210434</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09009190502786327</v>
+        <v>0.08529802948514</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1584628149770071</v>
+        <v>0.156213489982456</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>189</v>
@@ -1575,19 +1575,19 @@
         <v>198026</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>174438</v>
+        <v>173901</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>225416</v>
+        <v>224434</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1869405698860266</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1646729918347684</v>
+        <v>0.1641661156332455</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2127976992568284</v>
+        <v>0.2118708959113223</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>149047</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127414</v>
+        <v>127207</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>172958</v>
+        <v>169156</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2111780416522794</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1805270736548702</v>
+        <v>0.1802339348707632</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2450561544410083</v>
+        <v>0.2396701132534523</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1625,19 +1625,19 @@
         <v>12760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7128</v>
+        <v>6732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19930</v>
+        <v>20554</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03609387644751536</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02016373196046715</v>
+        <v>0.01904468773563072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05637765741374488</v>
+        <v>0.05814159513938541</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -1646,19 +1646,19 @@
         <v>161806</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>140003</v>
+        <v>136853</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>191139</v>
+        <v>182457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1527487981410385</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1321654052875345</v>
+        <v>0.1291920449912998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.180438920335789</v>
+        <v>0.1722431978520427</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>32698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24030</v>
+        <v>22969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44686</v>
+        <v>44959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04632830948408758</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03404694354410318</v>
+        <v>0.03254378021491806</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06331402149559921</v>
+        <v>0.06370102158390327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1696,19 +1696,19 @@
         <v>4218</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10439</v>
+        <v>9933</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0119308252499154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.003253347272011342</v>
+        <v>0.003265463410712402</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02952851359884266</v>
+        <v>0.02809702341090662</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1717,19 +1717,19 @@
         <v>36916</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26110</v>
+        <v>26780</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50446</v>
+        <v>51482</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03484915041712115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02464808224372547</v>
+        <v>0.02528116887194132</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04762219159569529</v>
+        <v>0.04859990223409682</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>202705</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>184692</v>
+        <v>185176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219112</v>
+        <v>220243</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6660123326537131</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6068289493959077</v>
+        <v>0.6084185618274535</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7199186759975258</v>
+        <v>0.7236356576050847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -1842,19 +1842,19 @@
         <v>126391</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115009</v>
+        <v>115900</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134889</v>
+        <v>135251</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8008548313725202</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7287374446486977</v>
+        <v>0.7343781226625248</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8547034218167592</v>
+        <v>0.8569973431194586</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>316</v>
@@ -1863,19 +1863,19 @@
         <v>329096</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>307370</v>
+        <v>309722</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>348334</v>
+        <v>349015</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7120572425079345</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6650500187032071</v>
+        <v>0.6701381066504968</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7536822300030601</v>
+        <v>0.7551559737864136</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>46689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35554</v>
+        <v>34157</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61486</v>
+        <v>59039</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.153404012645998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1168167565598697</v>
+        <v>0.1122278452958281</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2020211991358493</v>
+        <v>0.1939798105450239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1913,19 +1913,19 @@
         <v>20368</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13425</v>
+        <v>12724</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29661</v>
+        <v>29732</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1290572970478485</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08506682287701693</v>
+        <v>0.08062383315133535</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1879430250740096</v>
+        <v>0.1883900187380578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -1934,19 +1934,19 @@
         <v>67057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>52737</v>
+        <v>53022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81619</v>
+        <v>83882</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1450902960090725</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.114106257981733</v>
+        <v>0.1147234546843854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.176597296514437</v>
+        <v>0.1814939611723369</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>37157</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26474</v>
+        <v>25860</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49456</v>
+        <v>49296</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1220824892680601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0869838636718981</v>
+        <v>0.08496770138014127</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1624955455214427</v>
+        <v>0.1619683960105732</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1984,19 +1984,19 @@
         <v>3928</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8896</v>
+        <v>9104</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02489211029456682</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006298955835415582</v>
+        <v>0.006440299798758442</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05636726307110533</v>
+        <v>0.057683121899536</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -2005,19 +2005,19 @@
         <v>41085</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>30255</v>
+        <v>28891</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55836</v>
+        <v>54551</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08889471626583866</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06546208439503251</v>
+        <v>0.06251138797842144</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1208117465444326</v>
+        <v>0.1180311613396103</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>17805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10828</v>
+        <v>10259</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27151</v>
+        <v>28516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05850116543222876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03557584482705228</v>
+        <v>0.03370768460490347</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08920758429726283</v>
+        <v>0.09369261809339308</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -2055,19 +2055,19 @@
         <v>7133</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3008</v>
+        <v>2995</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13998</v>
+        <v>13319</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04519576128506442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01905937306655952</v>
+        <v>0.01897750896557403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08869742732739141</v>
+        <v>0.08439080116275595</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2076,19 +2076,19 @@
         <v>24938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15808</v>
+        <v>15742</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35314</v>
+        <v>35622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05395774521715441</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0342028868685279</v>
+        <v>0.03406011901514651</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07640910979392421</v>
+        <v>0.07707492949236598</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>931874</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>879376</v>
+        <v>891897</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>973534</v>
+        <v>977260</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4911247950392261</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4634566017156812</v>
+        <v>0.4700556473433811</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.513080684788453</v>
+        <v>0.5150444672107979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>762</v>
@@ -2201,19 +2201,19 @@
         <v>799364</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>769153</v>
+        <v>771723</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>824253</v>
+        <v>826451</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7861801337566823</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7564669011796231</v>
+        <v>0.7589944797614386</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8106580025997037</v>
+        <v>0.8128198728598023</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1656</v>
@@ -2222,19 +2222,19 @@
         <v>1731238</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1681356</v>
+        <v>1679042</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1789408</v>
+        <v>1782400</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5940702372853603</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.57695332792397</v>
+        <v>0.5761594010484153</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.614031295219498</v>
+        <v>0.6116264957571339</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>435043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>396768</v>
+        <v>394634</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>471955</v>
+        <v>471866</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2292802975905636</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.209108244828521</v>
+        <v>0.2079833982197101</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2487339238929209</v>
+        <v>0.2486869478973476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>151</v>
@@ -2272,19 +2272,19 @@
         <v>156956</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>136313</v>
+        <v>133598</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183547</v>
+        <v>180252</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1543677250061477</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1340648269937053</v>
+        <v>0.1313942222227734</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1805199268777502</v>
+        <v>0.1772794328398289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>563</v>
@@ -2293,19 +2293,19 @@
         <v>591999</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>547545</v>
+        <v>545221</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>638924</v>
+        <v>635426</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2031431399033976</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.187888783666311</v>
+        <v>0.1870912977850374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2192452904825676</v>
+        <v>0.2180449408611734</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>406315</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>370796</v>
+        <v>370599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>444776</v>
+        <v>443144</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2141401082332057</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1954200866270078</v>
+        <v>0.1953164442457092</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2344100310097179</v>
+        <v>0.2335499289870036</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2343,19 +2343,19 @@
         <v>39279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28691</v>
+        <v>28659</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54101</v>
+        <v>53618</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03863078553383415</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0282176255236303</v>
+        <v>0.02818660233005053</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05320838792700136</v>
+        <v>0.05273351554305353</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>425</v>
@@ -2364,19 +2364,19 @@
         <v>445594</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>404745</v>
+        <v>406058</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>486051</v>
+        <v>483255</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1529045280801957</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1388873507187918</v>
+        <v>0.1393377622937291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1667872936454098</v>
+        <v>0.1658278259771016</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>124196</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>103655</v>
+        <v>103870</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>147143</v>
+        <v>148264</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06545479913700465</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05462914119021328</v>
+        <v>0.05474265201506071</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07754853119477143</v>
+        <v>0.07813920820113968</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2414,19 +2414,19 @@
         <v>21171</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>14002</v>
+        <v>13218</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31929</v>
+        <v>31598</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02082135570333588</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01377065904127849</v>
+        <v>0.01300041922705268</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03140216676057793</v>
+        <v>0.03107649511239487</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>144</v>
@@ -2435,19 +2435,19 @@
         <v>145366</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>122679</v>
+        <v>124106</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>168756</v>
+        <v>172045</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04988209473104634</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04209691193899558</v>
+        <v>0.04258654190454007</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05790833717866049</v>
+        <v>0.05903701009180523</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>72540</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58013</v>
+        <v>59354</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89247</v>
+        <v>89624</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.263003378364034</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.21033292374729</v>
+        <v>0.2151951075057648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3235789605797453</v>
+        <v>0.3249459990164482</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -2800,19 +2800,19 @@
         <v>88023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73427</v>
+        <v>73369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102591</v>
+        <v>102955</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3941296208451212</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.328775842915125</v>
+        <v>0.3285162130815482</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4593624539572043</v>
+        <v>0.4609933231881818</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>147</v>
@@ -2821,19 +2821,19 @@
         <v>160562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140128</v>
+        <v>139187</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>181920</v>
+        <v>182711</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3216734154401455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2807348790107094</v>
+        <v>0.2788495450312837</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3644629176170571</v>
+        <v>0.3660468739407111</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>83087</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69417</v>
+        <v>68665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99304</v>
+        <v>100878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3012425941573853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.251682066292312</v>
+        <v>0.24895388769875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3600405006146346</v>
+        <v>0.3657471309079071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -2871,19 +2871,19 @@
         <v>83039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68872</v>
+        <v>69456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98714</v>
+        <v>97730</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3718169867080134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3083819707712933</v>
+        <v>0.3109947722822824</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4420027512372893</v>
+        <v>0.4375970472093699</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>154</v>
@@ -2892,19 +2892,19 @@
         <v>166126</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142700</v>
+        <v>146159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188496</v>
+        <v>186974</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3328198143173133</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2858881025895006</v>
+        <v>0.2928188571543677</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3776369534011015</v>
+        <v>0.3745869051932024</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>62090</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49001</v>
+        <v>48598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>77270</v>
+        <v>77904</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2251167478549307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1776610889154544</v>
+        <v>0.1761986198047036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2801525397194528</v>
+        <v>0.2824507634487508</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -2942,19 +2942,19 @@
         <v>32691</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>23023</v>
+        <v>23332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43541</v>
+        <v>44540</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1463758168645306</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1030872387821903</v>
+        <v>0.1044700835100267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1949595720515332</v>
+        <v>0.1994333514294774</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>91</v>
@@ -2963,19 +2963,19 @@
         <v>94781</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78544</v>
+        <v>76753</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>112699</v>
+        <v>114262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1898855595496558</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1573559472984901</v>
+        <v>0.1537686005001805</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2257831938236931</v>
+        <v>0.2289159199751305</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>58097</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44931</v>
+        <v>44578</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72033</v>
+        <v>72645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.21063727962365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1629026258439902</v>
+        <v>0.1616249726394653</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2611661298185174</v>
+        <v>0.2633865845680468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -3013,19 +3013,19 @@
         <v>19581</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11711</v>
+        <v>11651</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30072</v>
+        <v>29272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08767757558233495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0524389841774984</v>
+        <v>0.05216634239576674</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.13465027331961</v>
+        <v>0.1310698849967318</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -3034,19 +3034,19 @@
         <v>77678</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62370</v>
+        <v>62579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95610</v>
+        <v>95282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1556212106928854</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1249538279850863</v>
+        <v>0.1253716461514261</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1915465835503422</v>
+        <v>0.1908898721447183</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>105934</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>88998</v>
+        <v>89570</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>124185</v>
+        <v>125768</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2785209042853972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2339929425766568</v>
+        <v>0.2354973998557039</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3265074928689748</v>
+        <v>0.3306674501795513</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>120</v>
@@ -3159,19 +3159,19 @@
         <v>130122</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111622</v>
+        <v>112664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>144602</v>
+        <v>147158</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5116943297443363</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4389466059771254</v>
+        <v>0.4430427301454892</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5686355542340825</v>
+        <v>0.5786860374135107</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>220</v>
@@ -3180,19 +3180,19 @@
         <v>236056</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>212027</v>
+        <v>211514</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>260681</v>
+        <v>259378</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3719519065969303</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3340894409959617</v>
+        <v>0.3332814137344362</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4107529939244089</v>
+        <v>0.4087001776165436</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>119389</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102481</v>
+        <v>102339</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>138552</v>
+        <v>138731</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3138964758638119</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2694422272257734</v>
+        <v>0.2690689431093852</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3642801236339672</v>
+        <v>0.3647505992293492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>66</v>
@@ -3230,19 +3230,19 @@
         <v>73417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59408</v>
+        <v>58162</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90317</v>
+        <v>88383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2887078531300341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2336169069064994</v>
+        <v>0.2287170611477065</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3551639554356869</v>
+        <v>0.3475601579041401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>182</v>
@@ -3251,19 +3251,19 @@
         <v>192806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169344</v>
+        <v>171639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>216665</v>
+        <v>218722</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3038035664156966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2668350764116049</v>
+        <v>0.270450803468226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3413973063287827</v>
+        <v>0.3446392725390698</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>106836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90832</v>
+        <v>90363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>124468</v>
+        <v>124141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2808924577116126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2388139750159169</v>
+        <v>0.2375804853052862</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3272498701808043</v>
+        <v>0.3263895957115682</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -3301,19 +3301,19 @@
         <v>34215</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23528</v>
+        <v>24846</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47381</v>
+        <v>46872</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1345490150700101</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09252058757256362</v>
+        <v>0.09770535772330119</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1863218588181971</v>
+        <v>0.1843204735640398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>138</v>
@@ -3322,19 +3322,19 @@
         <v>141051</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121806</v>
+        <v>119432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>161894</v>
+        <v>162514</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2222536376967947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1919282563326852</v>
+        <v>0.1881878485952444</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2550954100939446</v>
+        <v>0.2560716542706762</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>48186</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36012</v>
+        <v>36654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62947</v>
+        <v>63600</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1266901621391783</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09468131244681381</v>
+        <v>0.09637140218426982</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1655008038287051</v>
+        <v>0.1672155651106557</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -3372,19 +3372,19 @@
         <v>16542</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10089</v>
+        <v>10378</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26782</v>
+        <v>28074</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06504880205561962</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03967401769446816</v>
+        <v>0.04080948929499534</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1053166346233612</v>
+        <v>0.1103970864802946</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>59</v>
@@ -3393,19 +3393,19 @@
         <v>64728</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>50304</v>
+        <v>49937</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82055</v>
+        <v>82263</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1019908892905784</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07926434062425756</v>
+        <v>0.07868489371001712</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1292932137389698</v>
+        <v>0.1296215034560261</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>178249</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156753</v>
+        <v>156289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198201</v>
+        <v>200657</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3926678183027852</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3453132765244877</v>
+        <v>0.3442904392934856</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4366203358944984</v>
+        <v>0.4420307338766933</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>154</v>
@@ -3518,19 +3518,19 @@
         <v>166746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>150912</v>
+        <v>149528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>183733</v>
+        <v>182226</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5983805575110623</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.541557622791542</v>
+        <v>0.5365934793277509</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.659339183709523</v>
+        <v>0.6539322473345035</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>322</v>
@@ -3539,19 +3539,19 @@
         <v>344996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>319042</v>
+        <v>317703</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>370722</v>
+        <v>374006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4709149863738004</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4354883436502659</v>
+        <v>0.4336605439613488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5060318580161723</v>
+        <v>0.5105143846202</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>143004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>123499</v>
+        <v>123881</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>164248</v>
+        <v>163383</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3150250357780898</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2720584388428635</v>
+        <v>0.2728986758937892</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3618238693973163</v>
+        <v>0.3599190945146352</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>80</v>
@@ -3589,19 +3589,19 @@
         <v>79934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>66922</v>
+        <v>65483</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96002</v>
+        <v>94473</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2868504582625387</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2401565299000153</v>
+        <v>0.2349915205513539</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3445121697909336</v>
+        <v>0.3390245343043992</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>215</v>
@@ -3610,19 +3610,19 @@
         <v>222938</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>198694</v>
+        <v>197631</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>248467</v>
+        <v>248690</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3043082424930755</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2712143133019145</v>
+        <v>0.2697635380453819</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3391547716681775</v>
+        <v>0.3394591203527375</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>90252</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72863</v>
+        <v>74182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>107564</v>
+        <v>110229</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1988164425753661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1605114186086545</v>
+        <v>0.1634177309757545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2369533943951408</v>
+        <v>0.2428241406508091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -3660,19 +3660,19 @@
         <v>25989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17267</v>
+        <v>17329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36047</v>
+        <v>36267</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09326210005555377</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06196349830653396</v>
+        <v>0.06218679808009109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1293575904649979</v>
+        <v>0.1301479070827064</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>110</v>
@@ -3681,19 +3681,19 @@
         <v>116240</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98579</v>
+        <v>96248</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>137104</v>
+        <v>135992</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.158666627782365</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1345590912471253</v>
+        <v>0.1313770819215245</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1871450615553034</v>
+        <v>0.1856276538970139</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>42440</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30020</v>
+        <v>30406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57806</v>
+        <v>56842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09349070334375889</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06613238057808368</v>
+        <v>0.06698110909488911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.127342210805244</v>
+        <v>0.1252179235868176</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -3731,19 +3731,19 @@
         <v>5993</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2090</v>
+        <v>2095</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14279</v>
+        <v>13659</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02150688417084519</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007499479813646339</v>
+        <v>0.007517507715889375</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05124221392189984</v>
+        <v>0.04901517266725413</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -3752,19 +3752,19 @@
         <v>48433</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35488</v>
+        <v>35390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64500</v>
+        <v>63879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06611014335075913</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04844012740911599</v>
+        <v>0.04830633583320536</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08804143631295704</v>
+        <v>0.08719443188051147</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>150405</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132678</v>
+        <v>131472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>167657</v>
+        <v>167938</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5090902363507362</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4490869471155299</v>
+        <v>0.4450049447889718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5674856114039135</v>
+        <v>0.5684354599531254</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -3877,19 +3877,19 @@
         <v>125365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110750</v>
+        <v>110072</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>137779</v>
+        <v>137900</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6720663823470197</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5937214828161124</v>
+        <v>0.5900829591212349</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7386161407850544</v>
+        <v>0.7392701537903208</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>246</v>
@@ -3898,19 +3898,19 @@
         <v>275770</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>250981</v>
+        <v>253755</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>297909</v>
+        <v>297720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5721658599347641</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5207350789922569</v>
+        <v>0.5264907695676753</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6180999095395343</v>
+        <v>0.6177093786717984</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>77132</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>62476</v>
+        <v>61941</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>95475</v>
+        <v>94820</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2610761561731581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2114673478742956</v>
+        <v>0.209657850353394</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3231634847420784</v>
+        <v>0.3209471971013968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -3948,19 +3948,19 @@
         <v>42840</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31881</v>
+        <v>31549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55915</v>
+        <v>56046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2296586646829133</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1709123095814418</v>
+        <v>0.1691322007429814</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2997550822277515</v>
+        <v>0.3004546701311553</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>108</v>
@@ -3969,19 +3969,19 @@
         <v>119972</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100498</v>
+        <v>99649</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141022</v>
+        <v>140765</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2489168438082782</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.208511865439328</v>
+        <v>0.2067510078775279</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2925911371487035</v>
+        <v>0.2920581050507036</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>51539</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>39212</v>
+        <v>38236</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67957</v>
+        <v>66774</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1744481508809326</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1327238523598181</v>
+        <v>0.1294198225148557</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2300218013482676</v>
+        <v>0.2260152987143128</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -4019,19 +4019,19 @@
         <v>13305</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8005</v>
+        <v>7022</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21344</v>
+        <v>21848</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07132791101016556</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04291510486382181</v>
+        <v>0.03764422281003853</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1144204175039402</v>
+        <v>0.1171256893056033</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>61</v>
@@ -4040,19 +4040,19 @@
         <v>64844</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>50562</v>
+        <v>51674</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>80652</v>
+        <v>82954</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1345381788158704</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1049064131708428</v>
+        <v>0.1072126812766233</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1673371158347928</v>
+        <v>0.1721134978768956</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>16363</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9763</v>
+        <v>9533</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25579</v>
+        <v>25561</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0553854565951731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03304599555924096</v>
+        <v>0.03226637447297846</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08657915150380369</v>
+        <v>0.08652017165859292</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -4090,19 +4090,19 @@
         <v>5027</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1952</v>
+        <v>1969</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11485</v>
+        <v>11088</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0269470419599014</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01046219390628881</v>
+        <v>0.01055767168572306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06157040995256935</v>
+        <v>0.05944103594308289</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -4111,19 +4111,19 @@
         <v>21390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13449</v>
+        <v>13800</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32442</v>
+        <v>31230</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04437911744108724</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.027903147218697</v>
+        <v>0.02863262422191157</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06731133131433827</v>
+        <v>0.0647948750199057</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>507128</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>469437</v>
+        <v>472275</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>542442</v>
+        <v>544437</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3608063994197374</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3339902011880184</v>
+        <v>0.336009618338981</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3859313854001139</v>
+        <v>0.3873503347397872</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>467</v>
@@ -4236,19 +4236,19 @@
         <v>510255</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>479017</v>
+        <v>479038</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>539899</v>
+        <v>540889</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5411960939473303</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5080644880509322</v>
+        <v>0.5080858003449595</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5726381921995923</v>
+        <v>0.5736874820393296</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>935</v>
@@ -4257,19 +4257,19 @@
         <v>1017383</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>965610</v>
+        <v>965622</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1067586</v>
+        <v>1068558</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4332296473877009</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4111832209373023</v>
+        <v>0.4111885040190564</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4546075113810666</v>
+        <v>0.4550214509679937</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>422611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>385873</v>
+        <v>385212</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>458214</v>
+        <v>456897</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3006752403871285</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2745368514037654</v>
+        <v>0.2740666921234327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3260053428652669</v>
+        <v>0.325068080208691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>260</v>
@@ -4307,19 +4307,19 @@
         <v>279231</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>249699</v>
+        <v>248259</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>306580</v>
+        <v>305249</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2961627918683012</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2648401661416704</v>
+        <v>0.2633130582080038</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3251706356380121</v>
+        <v>0.3237590189372569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>659</v>
@@ -4328,19 +4328,19 @@
         <v>701842</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>654381</v>
+        <v>658286</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>750134</v>
+        <v>747973</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2988635727146622</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2786533011292054</v>
+        <v>0.2803163504231542</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3194278332015925</v>
+        <v>0.3185073762235797</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>310716</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>282485</v>
+        <v>281211</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>343460</v>
+        <v>344947</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2210653824878076</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.200979517863409</v>
+        <v>0.2000731036186491</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2443613198357683</v>
+        <v>0.2454191595029776</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -4378,19 +4378,19 @@
         <v>106200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86603</v>
+        <v>85522</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127488</v>
+        <v>126509</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1126396490674434</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09185458085599882</v>
+        <v>0.09070845899478844</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1352191204404345</v>
+        <v>0.1341800132034032</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>400</v>
@@ -4399,19 +4399,19 @@
         <v>416916</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>382271</v>
+        <v>380845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>456890</v>
+        <v>454767</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1775343825702363</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1627815569756746</v>
+        <v>0.1621741574695755</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1945565183071296</v>
+        <v>0.1936524356033507</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>165085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>138790</v>
+        <v>140562</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>189598</v>
+        <v>189950</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1174529777053266</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09874466832043004</v>
+        <v>0.1000059488994011</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.134893423619549</v>
+        <v>0.1351437239979967</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -4449,19 +4449,19 @@
         <v>47143</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>34006</v>
+        <v>34473</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>62889</v>
+        <v>61207</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05000146511692509</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03606838904653804</v>
+        <v>0.03656384392887656</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06670256119478067</v>
+        <v>0.0649187116200021</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>197</v>
@@ -4470,19 +4470,19 @@
         <v>212228</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>185275</v>
+        <v>182946</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>242018</v>
+        <v>239888</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09037239732740046</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07889525471450108</v>
+        <v>0.0779032983772011</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1030578527016576</v>
+        <v>0.1021508148285453</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>76364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>61504</v>
+        <v>60113</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93128</v>
+        <v>91160</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.265344562152358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2137114541309417</v>
+        <v>0.2088752968701926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3235962972292035</v>
+        <v>0.3167574677057983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -4835,19 +4835,19 @@
         <v>106227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>92983</v>
+        <v>89313</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126575</v>
+        <v>123193</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3845532095977311</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3366102581530213</v>
+        <v>0.3233229896086785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4582159676963222</v>
+        <v>0.4459725876126564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>175</v>
@@ -4856,19 +4856,19 @@
         <v>182591</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>162753</v>
+        <v>162788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>207611</v>
+        <v>207504</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3237274230183659</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2885561580885525</v>
+        <v>0.2886178886247487</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3680872291801215</v>
+        <v>0.367898364643419</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>81498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66238</v>
+        <v>65959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96788</v>
+        <v>97820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2831837758640525</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2301583493670172</v>
+        <v>0.22919095960228</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3363138627859598</v>
+        <v>0.339896789769535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -4906,19 +4906,19 @@
         <v>95684</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>79391</v>
+        <v>80833</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110245</v>
+        <v>112954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.34638798251005</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2874033343980236</v>
+        <v>0.2926235065854992</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.399098232876554</v>
+        <v>0.4089086626657643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -4927,19 +4927,19 @@
         <v>177182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155476</v>
+        <v>155969</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200136</v>
+        <v>201191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3141382618165135</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2756547629412919</v>
+        <v>0.2765285415951277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3548354406000114</v>
+        <v>0.3567054254238137</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>68785</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55176</v>
+        <v>55090</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86163</v>
+        <v>85372</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2390092629524625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1917212916084134</v>
+        <v>0.1914234400009772</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2993919882905625</v>
+        <v>0.2966448654558305</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -4977,19 +4977,19 @@
         <v>45170</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33608</v>
+        <v>34245</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59063</v>
+        <v>59700</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1635196952620639</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1216639031923458</v>
+        <v>0.123970879874288</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.21381672743629</v>
+        <v>0.2161213116754853</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>109</v>
@@ -4998,19 +4998,19 @@
         <v>113955</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>95005</v>
+        <v>93730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134134</v>
+        <v>134915</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2020379775486645</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.168440719818827</v>
+        <v>0.1661800147842028</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2378145320584934</v>
+        <v>0.2391996860589488</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>61145</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47252</v>
+        <v>46291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77832</v>
+        <v>78116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.212462399031127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1641867141857519</v>
+        <v>0.1608476805673057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2704437821546521</v>
+        <v>0.2714307858676162</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -5048,19 +5048,19 @@
         <v>29153</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19821</v>
+        <v>19436</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40331</v>
+        <v>40669</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1055391126301549</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07175501520855335</v>
+        <v>0.07036111253909538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1460019834714607</v>
+        <v>0.1472257549932274</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>81</v>
@@ -5069,19 +5069,19 @@
         <v>90298</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73575</v>
+        <v>73992</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112452</v>
+        <v>109295</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1600963376164561</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1304455310889013</v>
+        <v>0.131185170395052</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1993737134309186</v>
+        <v>0.1937772849764285</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>131007</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>111995</v>
+        <v>112221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>149811</v>
+        <v>151142</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3384829964433511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2893611021901116</v>
+        <v>0.2899458880208237</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3870669179120913</v>
+        <v>0.3905070164413633</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>127</v>
@@ -5194,19 +5194,19 @@
         <v>133711</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>117093</v>
+        <v>117910</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>149573</v>
+        <v>149932</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4951276623230108</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4335938368000848</v>
+        <v>0.4366184219681755</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5538664220634514</v>
+        <v>0.5551933813270158</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>249</v>
@@ -5215,19 +5215,19 @@
         <v>264717</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>239190</v>
+        <v>239081</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>291925</v>
+        <v>293395</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4028608500215496</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.364011809285411</v>
+        <v>0.3638454763703669</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4442660705461875</v>
+        <v>0.4465035512193901</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>117434</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99033</v>
+        <v>98867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>135080</v>
+        <v>136026</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3034154728465728</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2558733535084045</v>
+        <v>0.2554423056827619</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3490070788887609</v>
+        <v>0.35145085253483</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5265,19 +5265,19 @@
         <v>81783</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66617</v>
+        <v>68591</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96526</v>
+        <v>96856</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3028413862521396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2466795504803744</v>
+        <v>0.2539910947572107</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3574329916123045</v>
+        <v>0.358655804825922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>192</v>
@@ -5286,19 +5286,19 @@
         <v>199217</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174756</v>
+        <v>175396</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224186</v>
+        <v>222912</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.303179534632462</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2659524874355926</v>
+        <v>0.2669269728017586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3411780558772632</v>
+        <v>0.3392392136796276</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>89710</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>73964</v>
+        <v>73772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>107160</v>
+        <v>108295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2317835978840037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1911018649266081</v>
+        <v>0.1906054704107453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2768687340336488</v>
+        <v>0.2798034458521264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -5336,19 +5336,19 @@
         <v>38157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26963</v>
+        <v>28135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49739</v>
+        <v>51549</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1412935394240687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09984439720605472</v>
+        <v>0.1041828544055506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1841805161508756</v>
+        <v>0.1908835577463396</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>128</v>
@@ -5357,19 +5357,19 @@
         <v>127867</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110730</v>
+        <v>108816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>150661</v>
+        <v>149219</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1945939770239374</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1685143332390305</v>
+        <v>0.1656011588427534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2292834073353434</v>
+        <v>0.2270895444563671</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>48890</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37185</v>
+        <v>35684</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>63513</v>
+        <v>62838</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1263179328260724</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09607418705745759</v>
+        <v>0.0921965462271862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1640987235837457</v>
+        <v>0.1623555627862374</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -5407,19 +5407,19 @@
         <v>16402</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9729</v>
+        <v>9660</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25050</v>
+        <v>25919</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06073741200078089</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03602798829703293</v>
+        <v>0.03576933884644634</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09275829228569621</v>
+        <v>0.09597779697590783</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -5428,19 +5428,19 @@
         <v>65293</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51018</v>
+        <v>50842</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82145</v>
+        <v>86244</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.099365638322051</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07764144114904158</v>
+        <v>0.07737465297171073</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1250125408251301</v>
+        <v>0.1312513066340536</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>208216</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185005</v>
+        <v>183655</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228333</v>
+        <v>229735</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4596262963539479</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4083885597178125</v>
+        <v>0.4054091616708231</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5040350523606513</v>
+        <v>0.5071295973074438</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>189</v>
@@ -5553,19 +5553,19 @@
         <v>188108</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170745</v>
+        <v>170164</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>203806</v>
+        <v>203956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6472310618810148</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5874908520475811</v>
+        <v>0.5854899247243253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7012450157796799</v>
+        <v>0.7017612844967281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -5574,19 +5574,19 @@
         <v>396324</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>370124</v>
+        <v>369569</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>422729</v>
+        <v>425253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5329468445196349</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.497715295207977</v>
+        <v>0.4969687224782621</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5684541908799632</v>
+        <v>0.5718480680314547</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>122221</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>106175</v>
+        <v>102549</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>143808</v>
+        <v>141599</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2697973682684928</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2343768435274388</v>
+        <v>0.2263713620840915</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3174494417719065</v>
+        <v>0.3125727935820811</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>59</v>
@@ -5624,19 +5624,19 @@
         <v>59157</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46123</v>
+        <v>46359</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74544</v>
+        <v>74571</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2035429763674453</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1586962293829117</v>
+        <v>0.1595089523634995</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2564854678285555</v>
+        <v>0.2565779934880418</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>177</v>
@@ -5645,19 +5645,19 @@
         <v>181378</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>158744</v>
+        <v>158435</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>204936</v>
+        <v>206999</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2439035253326735</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2134667901387756</v>
+        <v>0.2130516167680654</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2755823666074284</v>
+        <v>0.2783568220593032</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>90423</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74457</v>
+        <v>73696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110105</v>
+        <v>108356</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1996035088821804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1643607199129551</v>
+        <v>0.1626797359076729</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2430522769700412</v>
+        <v>0.2391895667703458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -5695,19 +5695,19 @@
         <v>36162</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25908</v>
+        <v>25621</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48634</v>
+        <v>47147</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1244249173413333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08914188783371191</v>
+        <v>0.0881569046532741</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1673360280856706</v>
+        <v>0.1622208308091515</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -5716,19 +5716,19 @@
         <v>126585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>105848</v>
+        <v>106399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146780</v>
+        <v>147922</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1702218696332354</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1423365162083497</v>
+        <v>0.1430775773642604</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1973793767451606</v>
+        <v>0.1989147623302882</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>32151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22978</v>
+        <v>22740</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45817</v>
+        <v>44616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07097282649537898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05072264470666519</v>
+        <v>0.05019660102633475</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1011387653868597</v>
+        <v>0.09848693223440164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -5766,19 +5766,19 @@
         <v>7208</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3093</v>
+        <v>3087</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13431</v>
+        <v>13439</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02480104441020663</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01064221523467828</v>
+        <v>0.01062216283101908</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0462117681286391</v>
+        <v>0.0462386057398852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -5787,19 +5787,19 @@
         <v>39360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29455</v>
+        <v>28313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>52916</v>
+        <v>52901</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05292776051445609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03960938742788651</v>
+        <v>0.03807260689628003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07115801563065803</v>
+        <v>0.07113694296920735</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>145256</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>128245</v>
+        <v>128998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162612</v>
+        <v>163534</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5318581912238992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4695709161927688</v>
+        <v>0.4723271025312153</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5954068167292913</v>
+        <v>0.5987811173413204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -5912,19 +5912,19 @@
         <v>130836</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>117250</v>
+        <v>117663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143387</v>
+        <v>143976</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6741908693005101</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6041866904955516</v>
+        <v>0.6063139189687756</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7388674933785172</v>
+        <v>0.7419039048303953</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -5933,19 +5933,19 @@
         <v>276092</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>253434</v>
+        <v>254032</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>296727</v>
+        <v>297287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5909828076188929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5424820648327555</v>
+        <v>0.5437622809785163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6351522027965425</v>
+        <v>0.6363516762035045</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>72714</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58802</v>
+        <v>58119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89380</v>
+        <v>88900</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2662444405311716</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.215303771124419</v>
+        <v>0.2128038521481586</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3272676364786508</v>
+        <v>0.3255078347953913</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -5983,19 +5983,19 @@
         <v>41043</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30373</v>
+        <v>30537</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>53683</v>
+        <v>54098</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2114920687024197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1565091670623836</v>
+        <v>0.1573560538475024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2766282152363372</v>
+        <v>0.2787670749359953</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>106</v>
@@ -6004,19 +6004,19 @@
         <v>113757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>95066</v>
+        <v>95268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>132258</v>
+        <v>134419</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2435004507121324</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2034924717847465</v>
+        <v>0.2039250007728763</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2831017963034127</v>
+        <v>0.2877276294405124</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>36575</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25892</v>
+        <v>26311</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>48400</v>
+        <v>48832</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1339197282357349</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09480444883561862</v>
+        <v>0.09633630420296048</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1772186402628215</v>
+        <v>0.1788006164153649</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -6054,19 +6054,19 @@
         <v>14313</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8539</v>
+        <v>7738</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23930</v>
+        <v>23691</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07375641394541872</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0439986651620669</v>
+        <v>0.03987423165510514</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1233090170254916</v>
+        <v>0.122080174447862</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>48</v>
@@ -6075,19 +6075,19 @@
         <v>50888</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39546</v>
+        <v>38045</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67018</v>
+        <v>65640</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1089280472912385</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08464953637033691</v>
+        <v>0.08143642679218191</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1434543755565015</v>
+        <v>0.14050371728452</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>18565</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10551</v>
+        <v>10862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29795</v>
+        <v>28800</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06797764000919422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03863433653681173</v>
+        <v>0.03977124078040106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.10909479166857</v>
+        <v>0.1054521099125221</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6125,19 +6125,19 @@
         <v>7871</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2923</v>
+        <v>3207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14499</v>
+        <v>14603</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04056064805165149</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01506367741137305</v>
+        <v>0.01652790682798836</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07471102255229647</v>
+        <v>0.07524936856331216</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -6146,19 +6146,19 @@
         <v>26437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17475</v>
+        <v>16814</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38274</v>
+        <v>38609</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05658869437773618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03740521372029065</v>
+        <v>0.03599130551911729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08192579484048924</v>
+        <v>0.08264283040304989</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>560843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>523116</v>
+        <v>522071</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>596950</v>
+        <v>596795</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4003289940201272</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3733995649624931</v>
+        <v>0.3726534524664223</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.426101857621241</v>
+        <v>0.4259912284455597</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>543</v>
@@ -6271,19 +6271,19 @@
         <v>558881</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>528772</v>
+        <v>524991</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>591181</v>
+        <v>592932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5420844534648691</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.512879946560297</v>
+        <v>0.5092126374945959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5734136748692129</v>
+        <v>0.5751122681634404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1056</v>
@@ -6292,19 +6292,19 @@
         <v>1119724</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1070780</v>
+        <v>1068025</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1171138</v>
+        <v>1168451</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4604240854101666</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4402983072723449</v>
+        <v>0.4391658345982668</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4815653373360429</v>
+        <v>0.4804602577834333</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>393868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>361157</v>
+        <v>359422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>431070</v>
+        <v>429872</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2811423048688423</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2577935738402187</v>
+        <v>0.2565549274917311</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3076968926035633</v>
+        <v>0.3068420863202503</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -6342,19 +6342,19 @@
         <v>277667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>249941</v>
+        <v>247825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305585</v>
+        <v>307884</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2693218886269167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2424288450875897</v>
+        <v>0.2403765759648341</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2964007658673046</v>
+        <v>0.2986305546924978</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>643</v>
@@ -6363,19 +6363,19 @@
         <v>671535</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>625312</v>
+        <v>631773</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>718615</v>
+        <v>718686</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2761312174856172</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2571248363573714</v>
+        <v>0.2597813597469387</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2954904421560439</v>
+        <v>0.2955194460655382</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>285492</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>253972</v>
+        <v>257261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314919</v>
+        <v>319917</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2037840195219638</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1812850268898788</v>
+        <v>0.1836324154919094</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2247889052596188</v>
+        <v>0.2283565100211194</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>133</v>
@@ -6413,19 +6413,19 @@
         <v>133802</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>112730</v>
+        <v>113871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157394</v>
+        <v>155327</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1297808020625806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1093425202918732</v>
+        <v>0.1104489213563393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1526637333823402</v>
+        <v>0.1506590067014791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>405</v>
@@ -6434,19 +6434,19 @@
         <v>419295</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>381174</v>
+        <v>383212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>455657</v>
+        <v>457621</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1724114703884176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1567364662547738</v>
+        <v>0.1575745396924838</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.187363625811619</v>
+        <v>0.1881711545640184</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>160752</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>138172</v>
+        <v>135590</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>185662</v>
+        <v>186291</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1147446815890667</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09862719937076493</v>
+        <v>0.09678386103767272</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1325251494546072</v>
+        <v>0.1329738679129534</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -6484,19 +6484,19 @@
         <v>60635</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45547</v>
+        <v>45418</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>76985</v>
+        <v>76611</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05881285584563352</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04417771669259915</v>
+        <v>0.04405336619614954</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07467108569209968</v>
+        <v>0.07430844096880686</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>206</v>
@@ -6505,19 +6505,19 @@
         <v>221387</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>192569</v>
+        <v>194265</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>250949</v>
+        <v>251372</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09103322671579865</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07918321290991499</v>
+        <v>0.0798808031329164</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.103188626044207</v>
+        <v>0.1033627167565796</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>19579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11404</v>
+        <v>11573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31978</v>
+        <v>30890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2054976889177351</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1196920933007173</v>
+        <v>0.121471623458287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3356319077599706</v>
+        <v>0.3242107827334774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -6870,19 +6870,19 @@
         <v>27513</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19503</v>
+        <v>19660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35731</v>
+        <v>36032</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3498896339294589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2480193384329695</v>
+        <v>0.250024003315548</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4543930318022228</v>
+        <v>0.4582260933187618</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -6891,19 +6891,19 @@
         <v>47092</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35731</v>
+        <v>35045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61755</v>
+        <v>61401</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2707851314188662</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2054551414811054</v>
+        <v>0.2015148003546604</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.355099992497849</v>
+        <v>0.3530600783537847</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>13209</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6225</v>
+        <v>6229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25389</v>
+        <v>28083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1386429081205348</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06533996123683565</v>
+        <v>0.06538200140851881</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.266480545883411</v>
+        <v>0.2947496473180437</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>26</v>
@@ -6941,19 +6941,19 @@
         <v>21744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14564</v>
+        <v>15166</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30227</v>
+        <v>28763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2765153330149676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1852131469393126</v>
+        <v>0.1928665154859167</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3843948229328977</v>
+        <v>0.3657829155836523</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -6962,19 +6962,19 @@
         <v>34953</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24218</v>
+        <v>24400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49210</v>
+        <v>49871</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2009825214005965</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.13925880722764</v>
+        <v>0.1403045251465765</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.282963711042756</v>
+        <v>0.2867628980978053</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>31963</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21138</v>
+        <v>21088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43196</v>
+        <v>43043</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3354799791438625</v>
+        <v>0.3354799791438624</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2218615910427501</v>
+        <v>0.2213379379746131</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4533744976654441</v>
+        <v>0.4517744791829526</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -7012,19 +7012,19 @@
         <v>20237</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13311</v>
+        <v>13509</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28770</v>
+        <v>29044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2573621466680022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1692827976429175</v>
+        <v>0.1717954954971875</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3658691725159848</v>
+        <v>0.3693551000981888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>47</v>
@@ -7033,19 +7033,19 @@
         <v>52201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39260</v>
+        <v>39408</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65520</v>
+        <v>66365</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3001586632929913</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2257513290183271</v>
+        <v>0.2265979710018662</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3767484869342329</v>
+        <v>0.3816080801573383</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>30524</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20400</v>
+        <v>20792</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42701</v>
+        <v>41601</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3203794238178675</v>
+        <v>0.3203794238178674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2141196355045084</v>
+        <v>0.2182308617343353</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4481828455574817</v>
+        <v>0.4366389580333948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -7083,19 +7083,19 @@
         <v>9140</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5474</v>
+        <v>5027</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15040</v>
+        <v>15094</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1162328863875714</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06961373332359021</v>
+        <v>0.06392718009796534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1912619833254174</v>
+        <v>0.1919468815617786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -7104,19 +7104,19 @@
         <v>39664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28785</v>
+        <v>29002</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53492</v>
+        <v>52547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2280736838875461</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1655144757966385</v>
+        <v>0.1667634058002476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3075839800761838</v>
+        <v>0.3021514876573433</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>61039</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>47375</v>
+        <v>45571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>77463</v>
+        <v>76452</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2626636569458027</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2038659534920837</v>
+        <v>0.1961006863211248</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.333340431481094</v>
+        <v>0.3289878303110023</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -7229,19 +7229,19 @@
         <v>51945</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41262</v>
+        <v>42062</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>64095</v>
+        <v>63948</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.3165446304430877</v>
+        <v>0.3165446304430876</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2514466779773014</v>
+        <v>0.2563225364954898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3905874486288263</v>
+        <v>0.3896903505395086</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>114</v>
@@ -7250,19 +7250,19 @@
         <v>112983</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95074</v>
+        <v>95501</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132294</v>
+        <v>131960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2849642227515263</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2397937454238389</v>
+        <v>0.2408694375880251</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3336679709686</v>
+        <v>0.332826787873744</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>67217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>50186</v>
+        <v>52252</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84016</v>
+        <v>84392</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2892510754862863</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2159602624242762</v>
+        <v>0.224850447012854</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3615386051973383</v>
+        <v>0.3631577997869164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -7300,19 +7300,19 @@
         <v>58410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47036</v>
+        <v>47110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70503</v>
+        <v>70634</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3559436821350216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2866327566033322</v>
+        <v>0.2870826079734123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4296357233773153</v>
+        <v>0.4304353165799573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -7321,19 +7321,19 @@
         <v>125627</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>106630</v>
+        <v>105733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146737</v>
+        <v>146390</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3168541933735366</v>
+        <v>0.3168541933735365</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2689387666451084</v>
+        <v>0.2666774961186479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3700957305813086</v>
+        <v>0.3692221237426761</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>71088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56198</v>
+        <v>56249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>89583</v>
+        <v>89903</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3059059947793544</v>
+        <v>0.3059059947793543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2418316232525395</v>
+        <v>0.2420537269372479</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3854945184753329</v>
+        <v>0.3868730388388107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -7371,19 +7371,19 @@
         <v>34633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25113</v>
+        <v>26280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44760</v>
+        <v>44472</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2110490297041593</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1530352746427209</v>
+        <v>0.1601444923980537</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2727635383512141</v>
+        <v>0.2710074645905781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>105</v>
@@ -7392,19 +7392,19 @@
         <v>105721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>89416</v>
+        <v>88924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>125547</v>
+        <v>126727</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2666460509719693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2255218813304406</v>
+        <v>0.2242828862793362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3166512028391355</v>
+        <v>0.319628042576224</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>33040</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22568</v>
+        <v>22337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>46820</v>
+        <v>46708</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1421792727885567</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09711626801147213</v>
+        <v>0.09612144202466505</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2014747670171659</v>
+        <v>0.200995364455309</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -7442,19 +7442,19 @@
         <v>19111</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12744</v>
+        <v>12184</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27953</v>
+        <v>28815</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1164626577177315</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07765936211939249</v>
+        <v>0.07425082233361149</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1703394058315412</v>
+        <v>0.1755970077111558</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>48</v>
@@ -7463,19 +7463,19 @@
         <v>52152</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>39484</v>
+        <v>39373</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>66974</v>
+        <v>67688</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.131535532902968</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09958636269128544</v>
+        <v>0.09930472799569012</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1689212645719889</v>
+        <v>0.1707205276687461</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>129691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110430</v>
+        <v>111197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151697</v>
+        <v>149238</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4026133893199083</v>
+        <v>0.4026133893199084</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3428189375601369</v>
+        <v>0.3452009915093407</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4709291754827173</v>
+        <v>0.4632978642457437</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -7588,19 +7588,19 @@
         <v>135210</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121507</v>
+        <v>121040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148865</v>
+        <v>148816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5488912913817354</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4932634733896002</v>
+        <v>0.4913655572982309</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6043240002107224</v>
+        <v>0.6041246636092233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -7609,19 +7609,19 @@
         <v>264901</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>239564</v>
+        <v>242033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>289013</v>
+        <v>289899</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4660010138431636</v>
+        <v>0.4660010138431637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.421430750048008</v>
+        <v>0.4257739412554734</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5084181816385703</v>
+        <v>0.5099778538649096</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>90941</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>74207</v>
+        <v>73151</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>108538</v>
+        <v>109153</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2823182617898601</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2303702425797242</v>
+        <v>0.2270908803042116</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.336946427459752</v>
+        <v>0.3388567325889197</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>105</v>
@@ -7659,19 +7659,19 @@
         <v>71944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>59039</v>
+        <v>60610</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>83560</v>
+        <v>85467</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2920588197449688</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2396720401828916</v>
+        <v>0.2460490050833709</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3392174976987208</v>
+        <v>0.3469569217067327</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>191</v>
@@ -7680,19 +7680,19 @@
         <v>162885</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>142566</v>
+        <v>143077</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>185982</v>
+        <v>186230</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2865392057711627</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2507960641753493</v>
+        <v>0.2516938990083391</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3271717649981374</v>
+        <v>0.3276075938003084</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>74096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58752</v>
+        <v>57237</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91809</v>
+        <v>90847</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2300253253420278</v>
+        <v>0.2300253253420279</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1823903490569805</v>
+        <v>0.1776878355192873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2850141077010224</v>
+        <v>0.2820259550971768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -7730,19 +7730,19 @@
         <v>26826</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19149</v>
+        <v>19061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36112</v>
+        <v>36067</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1088995413872553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07773593941606798</v>
+        <v>0.07737805131252626</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1465982859152081</v>
+        <v>0.146416256096244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -7751,19 +7751,19 @@
         <v>100922</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82989</v>
+        <v>83986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121134</v>
+        <v>120165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1775370437548003</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1459909987859414</v>
+        <v>0.1477438869628014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2130939950597972</v>
+        <v>0.2113895764456846</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>27394</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17388</v>
+        <v>17696</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42087</v>
+        <v>42779</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.0850430235482037</v>
+        <v>0.08504302354820373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05397841281989828</v>
+        <v>0.05493441565013103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1306555652830164</v>
+        <v>0.1328037779829897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -7801,19 +7801,19 @@
         <v>12354</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7074</v>
+        <v>7515</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19575</v>
+        <v>19779</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05015034748604049</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02871670885835183</v>
+        <v>0.03050791922035725</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07946467481252516</v>
+        <v>0.08029272751323324</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -7822,19 +7822,19 @@
         <v>39748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28375</v>
+        <v>28847</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57295</v>
+        <v>56985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0699227366308733</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0499152355556599</v>
+        <v>0.05074624166150597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1007912508138625</v>
+        <v>0.1002458055709971</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>182083</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>160326</v>
+        <v>161546</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>201415</v>
+        <v>203257</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5719966681901986</v>
+        <v>0.5719966681901987</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5036493560479073</v>
+        <v>0.5074797623534447</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6327244147010875</v>
+        <v>0.6385133721098667</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>203</v>
@@ -7947,19 +7947,19 @@
         <v>143984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>131702</v>
+        <v>131027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155653</v>
+        <v>155761</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6667131965831776</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6098425732982182</v>
+        <v>0.6067173568231115</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7207459411789566</v>
+        <v>0.7212454219756647</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>358</v>
@@ -7968,19 +7968,19 @@
         <v>326067</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>303370</v>
+        <v>303221</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>350816</v>
+        <v>348737</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6102813390125698</v>
+        <v>0.6102813390125699</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.567800812414512</v>
+        <v>0.5675206341144374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6566019273954746</v>
+        <v>0.6527107749095414</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>70743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55757</v>
+        <v>54881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87570</v>
+        <v>87472</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2222322681659021</v>
+        <v>0.2222322681659022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1751546506182501</v>
+        <v>0.1724047084484213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2750932668992578</v>
+        <v>0.2747844196004256</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -8018,19 +8018,19 @@
         <v>50042</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38610</v>
+        <v>40732</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60276</v>
+        <v>62348</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2317184374087546</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1787808457005655</v>
+        <v>0.1886073028610797</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2791081060116066</v>
+        <v>0.2887014686621601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>142</v>
@@ -8039,19 +8039,19 @@
         <v>120785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100853</v>
+        <v>103483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139491</v>
+        <v>140814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2260666028167785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1887599732242903</v>
+        <v>0.1936824282870049</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2610767806803863</v>
+        <v>0.2635531086833062</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>31951</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21461</v>
+        <v>20552</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47296</v>
+        <v>46022</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1003720563964048</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06741648851308532</v>
+        <v>0.06456150146796569</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1485760712248998</v>
+        <v>0.1445725830901955</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -8089,19 +8089,19 @@
         <v>7731</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4287</v>
+        <v>4099</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13797</v>
+        <v>13892</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03579759173013861</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01984905511479027</v>
+        <v>0.01898108629660012</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06388589834969469</v>
+        <v>0.06432747146545204</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>37</v>
@@ -8110,19 +8110,19 @@
         <v>39682</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>27167</v>
+        <v>27091</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>56434</v>
+        <v>55280</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07427088730560345</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05084713241635551</v>
+        <v>0.05070429072369463</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1056244044837048</v>
+        <v>0.1034639383540936</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>33552</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21432</v>
+        <v>21001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51889</v>
+        <v>51399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1053990072474944</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06732640325161074</v>
+        <v>0.06597218595238716</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1630053783951689</v>
+        <v>0.1614652906728188</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -8160,19 +8160,19 @@
         <v>14204</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8423</v>
+        <v>8181</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23560</v>
+        <v>23665</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06577077427792917</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03900267905837786</v>
+        <v>0.03788259585648314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1090936253959035</v>
+        <v>0.1095796452730758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -8181,19 +8181,19 @@
         <v>47755</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>33519</v>
+        <v>33098</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67191</v>
+        <v>66243</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0893811708650484</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06273638913420648</v>
+        <v>0.06194717109510429</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1257579802862463</v>
+        <v>0.1239839137073732</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>392391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>359448</v>
+        <v>356979</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>428643</v>
+        <v>427955</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4053166096222149</v>
+        <v>0.4053166096222148</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3712885120212801</v>
+        <v>0.3687373084683994</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4427622707351587</v>
+        <v>0.4420519448745738</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>476</v>
@@ -8306,19 +8306,19 @@
         <v>358652</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>332709</v>
+        <v>336207</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>380285</v>
+        <v>381280</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.5087068141451718</v>
+        <v>0.5087068141451717</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4719089526355454</v>
+        <v>0.4768708742532242</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5393904525006603</v>
+        <v>0.5408013672612128</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>809</v>
@@ -8327,19 +8327,19 @@
         <v>751043</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>706892</v>
+        <v>709285</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>792387</v>
+        <v>791981</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4488831697094889</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4224945762184492</v>
+        <v>0.4239249095704449</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4735930610437494</v>
+        <v>0.4733504965355129</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>242111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>215255</v>
+        <v>211059</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>274699</v>
+        <v>273432</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2500855949165957</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2223449765367724</v>
+        <v>0.2180112489783678</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2837470895811632</v>
+        <v>0.2824388223045019</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>277</v>
@@ -8377,19 +8377,19 @@
         <v>202139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>182203</v>
+        <v>182390</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223490</v>
+        <v>222185</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2867114756014958</v>
+        <v>0.2867114756014957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2584338935538121</v>
+        <v>0.2586999867818676</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3169946612867213</v>
+        <v>0.3151445522798809</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>491</v>
@@ -8398,19 +8398,19 @@
         <v>444250</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>408925</v>
+        <v>409066</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>483043</v>
+        <v>481863</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2655190069982376</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2444057590393698</v>
+        <v>0.2444900312803849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2887050210589012</v>
+        <v>0.2879995239685742</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>209098</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181726</v>
+        <v>181127</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>239381</v>
+        <v>235952</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.215986069096133</v>
+        <v>0.2159860690961329</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1877117939577202</v>
+        <v>0.1870934364315691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.247265554375711</v>
+        <v>0.2437244505515826</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -8448,19 +8448,19 @@
         <v>89427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74467</v>
+        <v>74524</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>107907</v>
+        <v>104986</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1268416060572094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1056229460381556</v>
+        <v>0.1057043675034508</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1530530620736748</v>
+        <v>0.1489112586810259</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -8469,19 +8469,19 @@
         <v>298525</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>263815</v>
+        <v>267043</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>332430</v>
+        <v>333362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.178422378963663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.15767671706061</v>
+        <v>0.1596060129982143</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1986868374149841</v>
+        <v>0.1992434608602411</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>124510</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>102191</v>
+        <v>101370</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>151225</v>
+        <v>151543</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1286117263650566</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.105556895854117</v>
+        <v>0.1047090689739892</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.156206291441725</v>
+        <v>0.156534270506272</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>66</v>
@@ -8519,19 +8519,19 @@
         <v>54809</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>42631</v>
+        <v>42237</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>70854</v>
+        <v>69138</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07774010419612308</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06046653194366503</v>
+        <v>0.05990780725375103</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1004977805652582</v>
+        <v>0.0980642763003481</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>161</v>
@@ -8540,19 +8540,19 @@
         <v>179319</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>154177</v>
+        <v>155997</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>214744</v>
+        <v>214269</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1071754443286105</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09214863217457009</v>
+        <v>0.09323617208063435</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1283479694515116</v>
+        <v>0.1280644321907432</v>
       </c>
     </row>
     <row r="28">
